--- a/testdata/Scenario1_CarWashContacts.xlsx
+++ b/testdata/Scenario1_CarWashContacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>Car Wash Name</t>
   </si>
@@ -306,6 +306,51 @@
   </si>
   <si>
     <t>07947127967</t>
+  </si>
+  <si>
+    <t>07947143012</t>
+  </si>
+  <si>
+    <t>07947104934</t>
+  </si>
+  <si>
+    <t>07942684259</t>
+  </si>
+  <si>
+    <t>07947110024</t>
+  </si>
+  <si>
+    <t>07942696090</t>
+  </si>
+  <si>
+    <t>07942692267</t>
+  </si>
+  <si>
+    <t>07947141636</t>
+  </si>
+  <si>
+    <t>07947421692</t>
+  </si>
+  <si>
+    <t>07942676843</t>
+  </si>
+  <si>
+    <t>07947429959</t>
+  </si>
+  <si>
+    <t>07947122898</t>
+  </si>
+  <si>
+    <t>07947108658</t>
+  </si>
+  <si>
+    <t>07947119122</t>
+  </si>
+  <si>
+    <t>07947119177</t>
+  </si>
+  <si>
+    <t>07942700016</t>
   </si>
 </sst>
 </file>
@@ -369,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -377,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -385,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -393,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -401,7 +446,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario1_CarWashContacts.xlsx
+++ b/testdata/Scenario1_CarWashContacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="132">
   <si>
     <t>Car Wash Name</t>
   </si>
@@ -351,6 +351,63 @@
   </si>
   <si>
     <t>07942700016</t>
+  </si>
+  <si>
+    <t>07947144822</t>
+  </si>
+  <si>
+    <t>07947411453</t>
+  </si>
+  <si>
+    <t>07942689712</t>
+  </si>
+  <si>
+    <t>Loading...</t>
+  </si>
+  <si>
+    <t>07947419900</t>
+  </si>
+  <si>
+    <t>07947116876</t>
+  </si>
+  <si>
+    <t>07947112449</t>
+  </si>
+  <si>
+    <t>07947423240</t>
+  </si>
+  <si>
+    <t>07947435091</t>
+  </si>
+  <si>
+    <t>07942686557</t>
+  </si>
+  <si>
+    <t>07942680984</t>
+  </si>
+  <si>
+    <t>07947129080</t>
+  </si>
+  <si>
+    <t>07947426674</t>
+  </si>
+  <si>
+    <t>07947114089</t>
+  </si>
+  <si>
+    <t>07947128386</t>
+  </si>
+  <si>
+    <t>07947113312</t>
+  </si>
+  <si>
+    <t>07947144801</t>
+  </si>
+  <si>
+    <t>07947152683</t>
+  </si>
+  <si>
+    <t>07947418365</t>
   </si>
 </sst>
 </file>
@@ -414,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -422,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -438,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>111</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario1_CarWashContacts.xlsx
+++ b/testdata/Scenario1_CarWashContacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
   <si>
     <t>Car Wash Name</t>
   </si>
@@ -408,6 +408,51 @@
   </si>
   <si>
     <t>07947418365</t>
+  </si>
+  <si>
+    <t>07947415362</t>
+  </si>
+  <si>
+    <t>07947104248</t>
+  </si>
+  <si>
+    <t>07942696845</t>
+  </si>
+  <si>
+    <t>07947130183</t>
+  </si>
+  <si>
+    <t>07942696622</t>
+  </si>
+  <si>
+    <t>07947107283</t>
+  </si>
+  <si>
+    <t>07947124717</t>
+  </si>
+  <si>
+    <t>07947417085</t>
+  </si>
+  <si>
+    <t>07947118579</t>
+  </si>
+  <si>
+    <t>07942676531</t>
+  </si>
+  <si>
+    <t>07947112241</t>
+  </si>
+  <si>
+    <t>07947435158</t>
+  </si>
+  <si>
+    <t>07947124072</t>
+  </si>
+  <si>
+    <t>07942698613</t>
+  </si>
+  <si>
+    <t>07947137139</t>
   </si>
 </sst>
 </file>
@@ -471,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario1_CarWashContacts.xlsx
+++ b/testdata/Scenario1_CarWashContacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="163">
   <si>
     <t>Car Wash Name</t>
   </si>
@@ -453,6 +453,54 @@
   </si>
   <si>
     <t>07947137139</t>
+  </si>
+  <si>
+    <t>07947134354</t>
+  </si>
+  <si>
+    <t>07942682980</t>
+  </si>
+  <si>
+    <t>07947424969</t>
+  </si>
+  <si>
+    <t>07942688525</t>
+  </si>
+  <si>
+    <t>07947423715</t>
+  </si>
+  <si>
+    <t>07947147748</t>
+  </si>
+  <si>
+    <t>07947135961</t>
+  </si>
+  <si>
+    <t>07947129238</t>
+  </si>
+  <si>
+    <t>07947423933</t>
+  </si>
+  <si>
+    <t>07947104208</t>
+  </si>
+  <si>
+    <t>07947435989</t>
+  </si>
+  <si>
+    <t>07942694243</t>
+  </si>
+  <si>
+    <t>07942683662</t>
+  </si>
+  <si>
+    <t>07947152506</t>
+  </si>
+  <si>
+    <t>07947417537</t>
+  </si>
+  <si>
+    <t>07947110558</t>
   </si>
 </sst>
 </file>
@@ -516,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
@@ -548,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
